--- a/WorkBot/main/backend/orders/OrderFiles/US Foods/US Foods_BAKERY_20250223.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/US Foods/US Foods_BAKERY_20250223.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1231,6 +1231,33 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>92210</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Chocolate Chips 4M - Semi-Sweet</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>69.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>207.33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
